--- a/moduls/old_CKU.xlsx
+++ b/moduls/old_CKU.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\ПОКОМ КИ\moduls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\ПОКОМ КИ\pokom_ki\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26FCA76-BBAA-4FD2-86AC-FDFB44429421}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D543FCBE-CE46-418D-90FD-AB5A9D71D758}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Колбаса Русская по-стародворски, 0,5 кг.  ПОКОМ</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>003   Колбаса Вязанка с индейкой, вектор ВЕС, ПОКОМ</t>
+  </si>
+  <si>
+    <t>Колбаса Вязанка с индейкой, вектор ВЕС, ПОКОМ</t>
   </si>
 </sst>
 </file>
@@ -411,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,6 +535,11 @@
         <v>20</v>
       </c>
     </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/moduls/old_CKU.xlsx
+++ b/moduls/old_CKU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\ПОКОМ КИ\pokom_ki\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D543FCBE-CE46-418D-90FD-AB5A9D71D758}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9ED064-62DB-44EF-A04B-5E8C8C0DFB5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Колбаса Русская по-стародворски, 0,5 кг.  ПОКОМ</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>Колбаса Вязанка с индейкой, вектор ВЕС, ПОКОМ</t>
+  </si>
+  <si>
+    <t>Молочная Вектор вар 500 гр Стародвор.кобасы</t>
+  </si>
+  <si>
+    <t>С Индейкой Вязанка вар Стародворские колбасы</t>
   </si>
 </sst>
 </file>
@@ -414,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A23"/>
+  <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,6 +546,16 @@
         <v>21</v>
       </c>
     </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/moduls/old_CKU.xlsx
+++ b/moduls/old_CKU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\ПОКОМ КИ\pokom_ki\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9ED064-62DB-44EF-A04B-5E8C8C0DFB5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3ECFCB6-646B-47D4-9B19-3B38A52E5182}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Колбаса Русская по-стародворски, 0,5 кг.  ПОКОМ</t>
   </si>
@@ -103,6 +103,18 @@
   </si>
   <si>
     <t>С Индейкой Вязанка вар Стародворские колбасы</t>
+  </si>
+  <si>
+    <t>072  Колбаса Русская стародворская, амифлекс 0,5 кг, ТМ Стародворье    ПОКОМ</t>
+  </si>
+  <si>
+    <t>071  Колбаса Русская по-стародворски,  0,5 кг, ПОКОМ</t>
+  </si>
+  <si>
+    <t>078  Колбаса Сервелат Зернистый, ПОКОМ 0.35 кг,ПОКОМ</t>
+  </si>
+  <si>
+    <t>Чипсы сырокопченые с натуральным филе и паприкой ТМ Ядрена копоть</t>
   </si>
 </sst>
 </file>
@@ -420,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A25"/>
+  <dimension ref="A1:A29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,6 +568,26 @@
         <v>23</v>
       </c>
     </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/moduls/old_CKU.xlsx
+++ b/moduls/old_CKU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\ПОКОМ КИ\pokom_ki\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3ECFCB6-646B-47D4-9B19-3B38A52E5182}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FAB250F-4776-4C94-BD23-BE44F174BF7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>Колбаса Русская по-стародворски, 0,5 кг.  ПОКОМ</t>
   </si>
@@ -115,6 +115,33 @@
   </si>
   <si>
     <t>Чипсы сырокопченые с натуральным филе и паприкой ТМ Ядрена копоть</t>
+  </si>
+  <si>
+    <t>Колбаса вареная Муромская ТМ Славница ТС Выгодная цена амифлекс вес ВЗ</t>
+  </si>
+  <si>
+    <t>Колбаса вареная Муромская со шпиком ТМ Колбасный стандарт полиамид вес СК</t>
+  </si>
+  <si>
+    <t>Сосиски Сочные ТМ Славница ТС Выгодная цена амицел мгс вес СК</t>
+  </si>
+  <si>
+    <t>с/к колбасы «Филейбургская зернистая» ф/в 0,03 нарезка ТМ «Баварушка»</t>
+  </si>
+  <si>
+    <t>с/к колбасы «Филейбургская с ароматными пряностями» ф/в 0,03 нарезка ТМ «Баварушка»</t>
+  </si>
+  <si>
+    <t>с/к колбасы «Филейбургская с душистым чесноком» ф/в 0,03 н/о нарезка ТМ «Баварушка»</t>
+  </si>
+  <si>
+    <t>с/к колбасы «Балыкбургская с мраморным балыком и нотками кориандра» ф/в 0,03 нарезка ТМ «Баварушка»</t>
+  </si>
+  <si>
+    <t>025  Колбаса Молочная стародворская, Вязанка вектор 0,5 кг,ПОКОМ</t>
+  </si>
+  <si>
+    <t>393  Колбаса Балыкбургская ТМ Баварушка в оболочке черева в в/у  0,28 кг. ПОКОМ</t>
   </si>
 </sst>
 </file>
@@ -432,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A29"/>
+  <dimension ref="A1:A38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,6 +615,51 @@
         <v>27</v>
       </c>
     </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/moduls/old_CKU.xlsx
+++ b/moduls/old_CKU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\ПОКОМ КИ\pokom_ki\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FAB250F-4776-4C94-BD23-BE44F174BF7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AF0C8C-6A7A-4939-AA4F-CBA1A088A79E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>Колбаса Русская по-стародворски, 0,5 кг.  ПОКОМ</t>
   </si>
@@ -142,6 +142,18 @@
   </si>
   <si>
     <t>393  Колбаса Балыкбургская ТМ Баварушка в оболочке черева в в/у  0,28 кг. ПОКОМ</t>
+  </si>
+  <si>
+    <t>Сосиски Ганноверские Бордо Весовые П/а Стародворье 450г шт</t>
+  </si>
+  <si>
+    <t>Сервелат Левантский 0,7</t>
+  </si>
+  <si>
+    <t>Особая сочинка стародворье</t>
+  </si>
+  <si>
+    <t>Колбаса Балыкбургская, ВЕС, ТМ Баварушка  ПОКОМ</t>
   </si>
 </sst>
 </file>
@@ -459,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A38"/>
+  <dimension ref="A1:A42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,6 +672,26 @@
         <v>36</v>
       </c>
     </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/moduls/old_CKU.xlsx
+++ b/moduls/old_CKU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\ПОКОМ КИ\pokom_ki\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AF0C8C-6A7A-4939-AA4F-CBA1A088A79E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB13DF0E-5D18-4A62-83A4-8402A06689F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>Колбаса Русская по-стародворски, 0,5 кг.  ПОКОМ</t>
   </si>
@@ -154,6 +154,12 @@
   </si>
   <si>
     <t>Колбаса Балыкбургская, ВЕС, ТМ Баварушка  ПОКОМ</t>
+  </si>
+  <si>
+    <t>Вареные колбасы Молочная Стародворская Вязанка Фикс.вес 0,5 Вектор Вязанка</t>
+  </si>
+  <si>
+    <t>013  Сардельки Филейские Вязанка с сочным окороком  , ВЕС.  ПОКОМ</t>
   </si>
 </sst>
 </file>
@@ -471,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A42"/>
+  <dimension ref="A1:A44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,6 +698,16 @@
         <v>40</v>
       </c>
     </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/moduls/old_CKU.xlsx
+++ b/moduls/old_CKU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\ПОКОМ КИ\pokom_ki\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB13DF0E-5D18-4A62-83A4-8402A06689F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED44653A-328A-4AC3-AA88-B4220B255E73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>Колбаса Русская по-стародворски, 0,5 кг.  ПОКОМ</t>
   </si>
@@ -160,6 +160,15 @@
   </si>
   <si>
     <t>013  Сардельки Филейские Вязанка с сочным окороком  , ВЕС.  ПОКОМ</t>
+  </si>
+  <si>
+    <t>Колбаса Сервелат Филейный ТМ Особый Рецепт, в/у 0,35кг  ПОКОМ</t>
+  </si>
+  <si>
+    <t>Колбаса Баварушка с душистым чесноком, ВЕС, фиброуз в/у, ТМ Стародворье ПОКОМ, кг</t>
+  </si>
+  <si>
+    <t>Вязанка с Индейкой (Вязанка) , Кг</t>
   </si>
 </sst>
 </file>
@@ -477,15 +486,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A44"/>
+  <dimension ref="A1:A47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.7109375" customWidth="1"/>
+    <col min="1" max="1" width="104" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -708,6 +717,21 @@
         <v>42</v>
       </c>
     </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/moduls/old_CKU.xlsx
+++ b/moduls/old_CKU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\ПОКОМ КИ\pokom_ki\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED44653A-328A-4AC3-AA88-B4220B255E73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29B39D0-24D4-4DBF-9B10-2B2D3F95DF1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>Колбаса Русская по-стародворски, 0,5 кг.  ПОКОМ</t>
   </si>
@@ -169,6 +169,12 @@
   </si>
   <si>
     <t>Вязанка с Индейкой (Вязанка) , Кг</t>
+  </si>
+  <si>
+    <t>089  Мини-колбаски с паприкой, ядрена копоть 0,3кг,  ПОКОМ</t>
+  </si>
+  <si>
+    <t>041  Ветчина Мраморная ТМ Стародворье 0,43 кг   ПОКОМ</t>
   </si>
 </sst>
 </file>
@@ -486,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A47"/>
+  <dimension ref="A1:A49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,6 +738,16 @@
         <v>45</v>
       </c>
     </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/moduls/old_CKU.xlsx
+++ b/moduls/old_CKU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\ПОКОМ КИ\pokom_ki\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29B39D0-24D4-4DBF-9B10-2B2D3F95DF1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E792BB8A-1002-4213-B943-80712555F0DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>Колбаса Русская по-стародворски, 0,5 кг.  ПОКОМ</t>
   </si>
@@ -175,6 +175,24 @@
   </si>
   <si>
     <t>041  Ветчина Мраморная ТМ Стародворье 0,43 кг   ПОКОМ</t>
+  </si>
+  <si>
+    <t>Русская вар в/с 0,5 ШТ Стародворские колбасы</t>
+  </si>
+  <si>
+    <t>Молочная по-стародворски золотая п/о (стародворье) , кг</t>
+  </si>
+  <si>
+    <t>Молочная по-стародворски золотая п/о (стародворье) , Кг</t>
+  </si>
+  <si>
+    <t>Молочная по-стародворски золотая п/о (стародворье) , КГ</t>
+  </si>
+  <si>
+    <t>Вязанка с Индейкой (Вязанка) , кг</t>
+  </si>
+  <si>
+    <t>Вязанка с Индейкой (Вязанка) , КГ</t>
   </si>
 </sst>
 </file>
@@ -492,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A49"/>
+  <dimension ref="A1:A55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,6 +766,36 @@
         <v>47</v>
       </c>
     </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/moduls/old_CKU.xlsx
+++ b/moduls/old_CKU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\ПОКОМ КИ\pokom_ki\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E792BB8A-1002-4213-B943-80712555F0DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457A2984-0069-410E-83DB-6DDBE785451C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>Колбаса Русская по-стародворски, 0,5 кг.  ПОКОМ</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>Вязанка с Индейкой (Вязанка) , КГ</t>
+  </si>
+  <si>
+    <t>427 Колбаса вареная Молокуша ТМ Вязанка в оболочке полиамид 0,4 кг.  Поком</t>
   </si>
 </sst>
 </file>
@@ -510,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A55"/>
+  <dimension ref="A1:A56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -796,6 +799,11 @@
         <v>53</v>
       </c>
     </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/moduls/old_CKU.xlsx
+++ b/moduls/old_CKU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\ПОКОМ КИ\pokom_ki\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457A2984-0069-410E-83DB-6DDBE785451C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F2A8DB-021F-47A1-B146-FF7AF904E714}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>Колбаса Русская по-стародворски, 0,5 кг.  ПОКОМ</t>
   </si>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>427 Колбаса вареная Молокуша ТМ Вязанка в оболочке полиамид 0,4 кг.  Поком</t>
+  </si>
+  <si>
+    <t>Кавказская из индейки 0,950 (шт.)</t>
   </si>
 </sst>
 </file>
@@ -513,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A56"/>
+  <dimension ref="A1:A57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,6 +807,11 @@
         <v>54</v>
       </c>
     </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/moduls/old_CKU.xlsx
+++ b/moduls/old_CKU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\ПОКОМ КИ\pokom_ki\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F2A8DB-021F-47A1-B146-FF7AF904E714}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D14402-B029-48CA-B2A2-AAA04875C228}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>Колбаса Русская по-стародворски, 0,5 кг.  ПОКОМ</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>Кавказская из индейки 0,950 (шт.)</t>
+  </si>
+  <si>
+    <t>Сервелат сочинка стародворье</t>
   </si>
 </sst>
 </file>
@@ -516,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A57"/>
+  <dimension ref="A1:A58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,6 +815,11 @@
         <v>55</v>
       </c>
     </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/moduls/old_CKU.xlsx
+++ b/moduls/old_CKU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\ПОКОМ КИ\pokom_ki\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D14402-B029-48CA-B2A2-AAA04875C228}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EE8C11-2301-43DD-A9DC-035162041B1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t>Колбаса Русская по-стародворски, 0,5 кг.  ПОКОМ</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>Сервелат сочинка стародворье</t>
+  </si>
+  <si>
+    <t>341 Колбаса вареная Филейбургская с филе сочного окорока ТМ Баварушка ТС Бавар  вектор 0,4кг ПОКОМ</t>
   </si>
 </sst>
 </file>
@@ -519,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A58"/>
+  <dimension ref="A1:A59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,6 +823,11 @@
         <v>56</v>
       </c>
     </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/moduls/old_CKU.xlsx
+++ b/moduls/old_CKU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\ПОКОМ КИ\pokom_ki\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EE8C11-2301-43DD-A9DC-035162041B1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB065B5-2A95-4090-B4D1-FB11E3C7CCA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>Колбаса Русская по-стародворски, 0,5 кг.  ПОКОМ</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>341 Колбаса вареная Филейбургская с филе сочного окорока ТМ Баварушка ТС Бавар  вектор 0,4кг ПОКОМ</t>
+  </si>
+  <si>
+    <t>Колбаса полусухая Стародворская 0,17 кг., ШТ.,   ПОКОМ</t>
   </si>
 </sst>
 </file>
@@ -522,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A59"/>
+  <dimension ref="A1:A60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,6 +831,11 @@
         <v>57</v>
       </c>
     </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/moduls/old_CKU.xlsx
+++ b/moduls/old_CKU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\ПОКОМ КИ\pokom_ki\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB065B5-2A95-4090-B4D1-FB11E3C7CCA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6159D1C-32D4-4258-9839-92C385BD8C19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>Колбаса Русская по-стародворски, 0,5 кг.  ПОКОМ</t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>Колбаса полусухая Стародворская 0,17 кг., ШТ.,   ПОКОМ</t>
+  </si>
+  <si>
+    <t>Мини Сервелат Зернистый 0,35 Стародворские колбасы</t>
   </si>
 </sst>
 </file>
@@ -525,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A60"/>
+  <dimension ref="A1:A61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,6 +839,11 @@
         <v>58</v>
       </c>
     </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/moduls/old_CKU.xlsx
+++ b/moduls/old_CKU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\ПОКОМ КИ\pokom_ki\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6159D1C-32D4-4258-9839-92C385BD8C19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6635D284-3B85-4F24-9195-811A41E88A7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>Колбаса Русская по-стародворски, 0,5 кг.  ПОКОМ</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>Мини Сервелат Зернистый 0,35 Стародворские колбасы</t>
+  </si>
+  <si>
+    <t>Русская Бордо вар п/а Стародв колбасы</t>
   </si>
 </sst>
 </file>
@@ -528,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A61"/>
+  <dimension ref="A1:A62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,6 +847,11 @@
         <v>59</v>
       </c>
     </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
